--- a/Final/EnvironmentModule/Data/EnvironmentData.xlsx
+++ b/Final/EnvironmentModule/Data/EnvironmentData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
   <si>
     <t>filename</t>
   </si>
@@ -366,9 +366,6 @@
     <t>5-263775-A-26.wav</t>
   </si>
   <si>
-    <t>344365__jourblue.wav</t>
-  </si>
-  <si>
     <t>open_door</t>
   </si>
   <si>
@@ -474,18 +471,12 @@
     <t>train_depot</t>
   </si>
   <si>
-    <t>?????????? ويشتغل بعديه بفترة معينة</t>
-  </si>
-  <si>
     <t>????????????????????</t>
   </si>
   <si>
     <t>??????????</t>
   </si>
   <si>
-    <t>؟؟؟؟؟؟؟؟؟؟؟؟؟؟؟؟؟؟</t>
-  </si>
-  <si>
     <t>words count</t>
   </si>
   <si>
@@ -510,10 +501,31 @@
     <t>street</t>
   </si>
   <si>
-    <t>street.wav</t>
-  </si>
-  <si>
-    <t>continuous (3 kinds)</t>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>22.wav</t>
+  </si>
+  <si>
+    <t>11.wav</t>
+  </si>
+  <si>
+    <t>Metro_door_closing</t>
+  </si>
+  <si>
+    <t>55.wav</t>
+  </si>
+  <si>
+    <t>bell_ring</t>
+  </si>
+  <si>
+    <t>66.wav</t>
+  </si>
+  <si>
+    <t>44.wav</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,8 +1376,8 @@
     <col min="1" max="1" width="43.25" customWidth="1"/>
     <col min="2" max="2" width="41.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
   </cols>
@@ -1378,16 +1390,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1401,10 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1412,7 +1421,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1426,7 +1435,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1435,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1446,7 +1455,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1460,7 +1469,7 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1474,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1547,10 +1556,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1564,16 +1573,16 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1581,7 +1590,7 @@
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1609,7 +1618,7 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1623,7 +1632,7 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1693,7 +1702,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1733,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,7 +1753,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1753,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1803,7 +1812,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1817,7 +1826,7 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1837,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1845,7 +1854,7 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1918,7 +1927,7 @@
         <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1938,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1955,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1963,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1997,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2103,7 +2112,7 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2123,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,7 +2140,7 @@
         <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2145,7 +2154,7 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2215,7 +2224,7 @@
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2229,7 +2238,7 @@
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2283,10 +2292,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2294,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2336,7 +2342,7 @@
         <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2350,7 +2356,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2392,7 +2398,7 @@
         <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2401,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2409,7 +2415,7 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2460,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,7 +2488,7 @@
         <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2493,10 +2499,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -2510,86 +2516,83 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="2">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2598,8 +2601,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="1"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:D87">
